--- a/etc/SAA-C03 정리.xlsx
+++ b/etc/SAA-C03 정리.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
   <si>
     <t xml:space="preserve">대분류</t>
   </si>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Amazon Aurora</t>
   </si>
   <si>
-    <t xml:space="preserve">- MySQL 및 PostgreSQL과 호환되는 완전 관리형 관계형 데이터베이스 엔진
+    <t xml:space="preserve">- MySQL 및 PostgreSQL과 호환되는 완전 관리형 RDB 엔진
 - RDS의 일부로서 관리를 위해 RDS 기능 사용</t>
   </si>
   <si>
@@ -101,6 +101,12 @@
     <t xml:space="preserve">- 필요에 따라 확장할 수 있는 고가용성 파일 시스템</t>
   </si>
   <si>
+    <t xml:space="preserve">Amazon EventBridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 상태 변경 이벤트 모니터링</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amazon FSx for Windows File Server</t>
   </si>
   <si>
@@ -151,7 +157,11 @@
     <t xml:space="preserve">S3</t>
   </si>
   <si>
-    <t xml:space="preserve">- Life Cycle Policy를 사용하여 작업 정의 가능</t>
+    <t xml:space="preserve">'- Life Cycle Policy를 사용하여 작업 정의 가능
+- S3 replication : S3 버킷간 자동 복제
+- S3 Object Lock : S3 객체 수정 및 삭제 방지
+  &gt; Governance mode : 특수 권한 사용자는 객체 삭제 가능
+  &gt; Compliance mode : 루트 사용자 포함, 어느 사용자도 보호 객체 수정 및 삭제 금지</t>
   </si>
   <si>
     <t xml:space="preserve">Amazon S3 Glacier Deep Archive</t>
@@ -165,6 +175,15 @@
     <t xml:space="preserve">Amazon S3 Intelligent-Tiering</t>
   </si>
   <si>
+    <t xml:space="preserve">- 확장성이 뛰어나고 비용 효율적인 스토리지 서비스</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon S3 Standard Infrequent Access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 자주 접근하지 않지만 필요할 때 신속하게 액세스해야 하는 데이터를 위한 저비용 스토리지</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amazon SageMaker</t>
   </si>
   <si>
@@ -223,6 +242,18 @@
   ex : 태그가 지정되지 않은 리소스 감지 </t>
   </si>
   <si>
+    <t xml:space="preserve">AWS Database Migration Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 일회성 Migration을 수행한 후 지속적으로 변경사항을 복제하여 동기화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Firewall Manager</t>
+  </si>
+  <si>
     <t xml:space="preserve">AWS Global Accelerator </t>
   </si>
   <si>
@@ -247,6 +278,9 @@
   </si>
   <si>
     <t xml:space="preserve">- DDoS 공격에 효율적으로 대응</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS PrivateLink</t>
   </si>
   <si>
     <t xml:space="preserve">문제번호</t>
@@ -278,11 +312,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -313,6 +348,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕 Semilight"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -362,48 +402,56 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -590,18 +638,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="75.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="75.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -753,10 +801,12 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -768,11 +818,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -784,78 +834,80 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="6" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -877,51 +929,92 @@
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="6" t="s">
         <v>65</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -948,36 +1041,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="8" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="66.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="9" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="66.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>75</v>
+      <c r="A1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>78</v>
+      <c r="B2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/etc/SAA-C03 정리.xlsx
+++ b/etc/SAA-C03 정리.xlsx
@@ -11,6 +11,9 @@
     <sheet name="시트1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="시트2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">시트1!$A$1:$D$40</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
   <si>
     <t xml:space="preserve">대분류</t>
   </si>
@@ -35,123 +38,165 @@
     <t xml:space="preserve">내용</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon AppFlow</t>
+    <t xml:space="preserve"> AppFlow</t>
   </si>
   <si>
     <t xml:space="preserve">'- SaaS App와 AWS 서비스간 데이안전한 데이터 전송 지원
 - 완전관리형 통합서비스로 오버헤드가 적음</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon Aurora</t>
+    <t xml:space="preserve"> Aurora</t>
   </si>
   <si>
     <t xml:space="preserve">- MySQL 및 PostgreSQL과 호환되는 완전 관리형 RDB 엔진
-- RDS의 일부로서 관리를 위해 RDS 기능 사용</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon CloudFront</t>
+- RDS의 일부로서 관리를 위해 RDS 기능 사용
+- 읽기 전용</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CloudFront</t>
   </si>
   <si>
     <t xml:space="preserve">- 콘텐츠 전송 네트워크 서비스 (CDN)
 - S3에서 직접 데이터를 전송하는 것보다 비용 효율적</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon Comprehend Medical</t>
+    <t xml:space="preserve"> CloudTrail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 리소스에 대한 API 호출 기록을 관리하며 보안/감사에 중요 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comprehend Medical</t>
   </si>
   <si>
     <t xml:space="preserve">- 의료용 텍스트 식별 서비스</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon DynamoDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon ElastiCache</t>
+    <t xml:space="preserve"> Config </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- AWS 리소스 구성을 측정, 감사 및 평가할 수 있는 서비스
+  ex : 태그가 지정되지 않은 리소스 감지 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Database Migration Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 일회성 Migration을 수행한 후 지속적으로 변경사항을 복제하여 동기화</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DynamoDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DynamoDB Accelerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 읽기 중심의 워크로드에서 초당 수백만 개의 요청에도 마이크로초의 응답 시간 지원</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elastic Block Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 여러 EC2 인스턴스에서 동시접속할 수 없다는 단점이 있음</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elastic Container Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fargate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- EC2 인스턴스의 서버나 클러스터를 관리할 필요 없이 컨테이너를 실행할 수 있는 기술</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elastic File System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 필요에 따라 확장할 수 있는 고가용성 파일 시스템</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ElastiCache</t>
   </si>
   <si>
     <t xml:space="preserve">- 캐시 서비스</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon Elastic Block Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EBS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- 여러 EC2 인스턴스에서 동시접속할 수 없다는 단점이 있음</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon Elastic Container Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon Fargate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- EC2 인스턴스의 서버나 클러스터를 관리할 필요 없이 컨테이너를 실행할 수 있는 기술</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon Elastic File System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- 필요에 따라 확장할 수 있는 고가용성 파일 시스템</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon EventBridge</t>
+    <t xml:space="preserve"> EventBridge</t>
   </si>
   <si>
     <t xml:space="preserve">- 상태 변경 이벤트 모니터링</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon FSx for Windows File Server</t>
+    <t xml:space="preserve"> Firewall Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FSx for Windows File Server</t>
   </si>
   <si>
     <t xml:space="preserve">- </t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon GuardDuty</t>
+    <t xml:space="preserve"> Global Accelerator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 사용자 트래픽을 최적 경로로 라우팅하여 리전별 AWS 리소스 및 엔드포인트로 연결
+- 네트워크 계층</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GuardDuty</t>
   </si>
   <si>
     <t xml:space="preserve">- AWS 계정 및 워크로드에서의 위협 탐지 서비스</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon Inspector</t>
+    <t xml:space="preserve"> Inspector</t>
   </si>
   <si>
     <t xml:space="preserve">- 취약성 관리 서비스</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon Kinesis Data Firehose</t>
+    <t xml:space="preserve"> Kinesis Data Firehose</t>
   </si>
   <si>
     <t xml:space="preserve">- 특정 요구에 맞춰 스트리밍 데이터를 처리하거나 분석</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon Macie</t>
+    <t xml:space="preserve"> Macie</t>
   </si>
   <si>
     <t xml:space="preserve">- PII와 같은 민감정보를 자동으로 검색, 분류, 보호하는 서비스</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon Rekognition</t>
+    <t xml:space="preserve"> PrivateLink</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rekognition</t>
   </si>
   <si>
     <t xml:space="preserve">'- 이미지 및 비디어 분석 서비스
 - 부적절한 콘텐츠 감지 기능 제공</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon Route 53</t>
+    <t xml:space="preserve"> Route 53</t>
   </si>
   <si>
     <t xml:space="preserve">- DNS 서비스
 - 응용 계층</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon S3</t>
+    <t xml:space="preserve"> S3</t>
   </si>
   <si>
     <t xml:space="preserve">S3</t>
@@ -164,7 +209,7 @@
   &gt; Compliance mode : 루트 사용자 포함, 어느 사용자도 보호 객체 수정 및 삭제 금지</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon S3 Glacier Deep Archive</t>
+    <t xml:space="preserve"> S3 Glacier Deep Archive</t>
   </si>
   <si>
     <t xml:space="preserve">- 자주 접근하지 않는 데이터를 장기 보존할 때 사용
@@ -172,115 +217,86 @@
 - 정적 웹사이트를 저렴하게 호스팅 할 수 있음</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon S3 Intelligent-Tiering</t>
+    <t xml:space="preserve"> S3 Intelligent-Tiering</t>
   </si>
   <si>
     <t xml:space="preserve">- 확장성이 뛰어나고 비용 효율적인 스토리지 서비스</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon S3 Standard Infrequent Access</t>
+    <t xml:space="preserve"> S3 Standard Infrequent Access</t>
   </si>
   <si>
     <t xml:space="preserve">- 자주 접근하지 않지만 필요할 때 신속하게 액세스해야 하는 데이터를 위한 저비용 스토리지</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon SageMaker</t>
+    <t xml:space="preserve"> SageMaker</t>
   </si>
   <si>
     <t xml:space="preserve">- 기계 학습 모델 서비스</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon Simple Email Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon Simple Notification Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- subscriber에게 메시지를 전달하는 서비스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon Simple Queue Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- 메시지 대기열 서비스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon Textract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- 스캔 문서에서 텍스트, 필기 등 데이터 추출</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application Load Balancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- HealthCheck 기능 제공</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS CloudTrail </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- 리소스에 대한 API 호출 기록을 관리하며 보안/감사에 중요 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS Config </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- AWS 리소스 구성을 측정, 감사 및 평가할 수 있는 서비스
-  ex : 태그가 지정되지 않은 리소스 감지 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS Database Migration Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- 일회성 Migration을 수행한 후 지속적으로 변경사항을 복제하여 동기화</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS Firewall Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS Global Accelerator </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- 사용자 트래픽을 최적 경로로 라우팅하여 리전별 AWS 리소스 및 엔드포인트로 연결
-- 네트워크 계층</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS Secrets Manager</t>
+    <t xml:space="preserve"> Secrets Manager</t>
   </si>
   <si>
     <t xml:space="preserve">'- 하드코딩된 자격증명을 제거하여 보안성 개선
 - 주기적으로 암호를 교체하도록 구성 가능</t>
   </si>
   <si>
-    <t xml:space="preserve">AWS Shield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS Shield Standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS Shield Advanced</t>
+    <t xml:space="preserve"> Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shield Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shield Advanced</t>
   </si>
   <si>
     <t xml:space="preserve">- DDoS 공격에 효율적으로 대응</t>
   </si>
   <si>
-    <t xml:space="preserve">AWS PrivateLink</t>
+    <t xml:space="preserve"> Simple Email Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Simple Notification Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- subscriber에게 메시지를 전달하는 서비스</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Simple Queue Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 메시지 대기열 서비스</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Textract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 스캔 문서에서 텍스트, 필기 등 데이터 추출</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- S3와의 통합을 통해 SFTP 설정 가능</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application Load Balancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- HealthCheck 기능 제공</t>
   </si>
   <si>
     <t xml:space="preserve">문제번호</t>
@@ -312,7 +328,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="맑은 고딕"/>
@@ -348,11 +364,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="맑은 고딕 Semilight"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -402,7 +413,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -433,10 +444,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -464,6 +471,31 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -525,6 +557,10 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -638,10 +674,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -676,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -697,12 +733,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -712,43 +746,40 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>20</v>
@@ -775,16 +806,18 @@
         <v>25</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
         <v>28</v>
@@ -795,41 +828,45 @@
         <v>29</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D14" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
         <v>38</v>
       </c>
@@ -842,182 +879,202 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="6" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="7" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+    <row r="25" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row r="26" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+    <row r="28" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D28" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D32" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="B33" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="6" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="C36" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="D36" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="D39" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D40"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1025,6 +1082,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1041,36 +1099,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="9" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="66.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="8" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="66.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>85</v>
+      <c r="A1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>88</v>
+      <c r="B2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/etc/SAA-C03 정리.xlsx
+++ b/etc/SAA-C03 정리.xlsx
@@ -12,7 +12,7 @@
     <sheet name="시트2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">시트1!$A$1:$D$40</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">시트1!$A$1:$D$44</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
   <si>
     <t xml:space="preserve">대분류</t>
   </si>
@@ -91,6 +91,9 @@
     <t xml:space="preserve"> DynamoDB</t>
   </si>
   <si>
+    <t xml:space="preserve">- DynamoDBTTL : 타임스탬프를 정의하여 삭제할 시기 설정 가능</t>
+  </si>
+  <si>
     <t xml:space="preserve"> DynamoDB Accelerator</t>
   </si>
   <si>
@@ -187,6 +190,12 @@
   <si>
     <t xml:space="preserve">'- 이미지 및 비디어 분석 서비스
 - 부적절한 콘텐츠 감지 기능 제공</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource Groups Tag Editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 태그를 기반으로 리소스를 관리 및 구성</t>
   </si>
   <si>
     <t xml:space="preserve"> Route 53</t>
@@ -284,19 +293,34 @@
     <t xml:space="preserve">- 스캔 문서에서 텍스트, 필기 등 데이터 추출</t>
   </si>
   <si>
+    <t xml:space="preserve">Application Load Balancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- HealthCheck 기능 제공</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocumentDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- MongoDB 호환 데이터베이스</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elastic Beanstalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 고객 메시지의 특정 키워드에 자동 응답 생성 가능</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transfer Family</t>
   </si>
   <si>
     <t xml:space="preserve">- S3와의 통합을 통해 SFTP 설정 가능</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application Load Balancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- HealthCheck 기능 제공</t>
   </si>
   <si>
     <t xml:space="preserve">문제번호</t>
@@ -674,10 +698,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -775,172 +799,171 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -949,91 +972,91 @@
     </row>
     <row r="28" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>58</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="1" t="s">
         <v>68</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
@@ -1050,31 +1073,66 @@
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="C38" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="D38" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D40"/>
+  <autoFilter ref="A1:D44"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1105,16 +1163,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1122,13 +1180,13 @@
         <v>36</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/etc/SAA-C03 정리.xlsx
+++ b/etc/SAA-C03 정리.xlsx
@@ -403,7 +403,6 @@
       <sz val="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -424,7 +423,6 @@
       <sz val="10"/>
       <name val="맑은 고딕 Semilight"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -432,14 +430,12 @@
       <color rgb="FF000000"/>
       <name val="맑은 고딕 Semilight"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕 Semilight"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -760,7 +756,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -795,7 +791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,7 +822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -834,7 +830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -844,7 +840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -862,7 +858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -870,7 +866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -881,7 +877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -889,7 +885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -899,7 +895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
@@ -911,7 +907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
@@ -919,7 +915,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -931,7 +927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
@@ -941,7 +937,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
@@ -953,7 +949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
@@ -965,7 +961,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
@@ -975,7 +971,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
@@ -985,13 +981,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
@@ -1009,7 +1005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
@@ -1019,7 +1015,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -1029,7 +1025,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -1037,7 +1033,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
@@ -1048,7 +1044,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -1056,7 +1052,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -1064,7 +1060,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -1077,7 +1073,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -1115,7 +1111,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -1126,7 +1122,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
@@ -1137,7 +1133,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>72</v>
       </c>
@@ -1148,7 +1144,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
@@ -1156,7 +1152,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
@@ -1175,7 +1171,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>89</v>
       </c>
@@ -1183,7 +1179,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>89</v>
       </c>
@@ -1194,7 +1190,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -1203,7 +1199,7 @@
       </c>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -1214,7 +1210,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>98</v>
       </c>
@@ -1225,7 +1221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
@@ -1244,7 +1240,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>105</v>
       </c>
@@ -1252,7 +1248,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>107</v>
       </c>
@@ -1261,11 +1257,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D51">
-    <sortState ref="A2:D51">
-      <sortCondition ref="A2:A51" customList=""/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D51"/>
   <hyperlinks>
     <hyperlink ref="B28" r:id="rId1" display="Lambda@Edge"/>
   </hyperlinks>
@@ -1297,7 +1289,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="66.78"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>109</v>
       </c>
